--- a/游戏记录.xlsx
+++ b/游戏记录.xlsx
@@ -639,7 +639,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,19 +655,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -675,6 +663,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -1176,137 +1170,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,7 +1319,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,41 +1328,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1684,15 +1669,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J9" sqref="D17 J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="101.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="101.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:4">
@@ -1710,7 +1695,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1724,7 +1709,7 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1738,7 +1723,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1752,7 +1737,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1766,7 +1751,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1780,47 +1765,47 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1832,40 +1817,40 @@
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,7 +1865,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1905,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -1917,7 +1902,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -1931,7 +1916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1945,11 +1930,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1959,7 +1944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -1973,7 +1958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1985,7 +1970,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
@@ -1998,7 +1983,7 @@
       <c r="D8" s="5"/>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2011,7 +1996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
@@ -2037,7 +2022,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
@@ -2049,7 +2034,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>82</v>
       </c>
@@ -2061,7 +2046,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
@@ -2075,7 +2060,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>88</v>
       </c>
@@ -2087,7 +2072,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -2099,7 +2084,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>93</v>
       </c>
@@ -2124,7 +2109,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2197,7 +2182,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" customFormat="1" spans="1:4">
+    <row r="6" customFormat="1" ht="14.25" spans="1:4">
       <c r="A6" s="7" t="s">
         <v>104</v>
       </c>
@@ -2225,7 +2210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>111</v>
       </c>
@@ -2273,7 +2258,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>120</v>
       </c>
@@ -2325,7 +2310,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>131</v>
       </c>
@@ -2353,7 +2338,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="7" t="s">
         <v>138</v>
       </c>
@@ -2365,7 +2350,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="14.25" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>140</v>
       </c>
@@ -2389,7 +2374,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" ht="14.25" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>144</v>
       </c>
@@ -2402,7 +2387,7 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2414,7 +2399,7 @@
       <c r="D22" s="9"/>
     </row>
     <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2427,7 +2412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" ht="14.25" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>152</v>
       </c>
@@ -2439,7 +2424,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" ht="14.25" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>155</v>
       </c>
@@ -2478,7 +2463,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2517,7 +2502,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>165</v>
       </c>
@@ -2529,7 +2514,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>168</v>
       </c>
@@ -2541,7 +2526,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>171</v>
       </c>
@@ -2553,7 +2538,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>174</v>
       </c>
@@ -2565,7 +2550,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>176</v>
       </c>
@@ -2577,7 +2562,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>179</v>
       </c>
@@ -2589,7 +2574,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="14.25" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>181</v>
       </c>
@@ -2601,7 +2586,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>183</v>
       </c>
@@ -2613,7 +2598,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>186</v>
       </c>
@@ -2625,7 +2610,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>188</v>
       </c>
@@ -2637,7 +2622,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>191</v>
       </c>
@@ -2649,7 +2634,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>194</v>
       </c>
@@ -2661,7 +2646,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>196</v>
       </c>

--- a/游戏记录.xlsx
+++ b/游戏记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色扮演" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="207">
   <si>
     <t>发行日期</t>
   </si>
@@ -41,9 +41,15 @@
     <t>开发公司</t>
   </si>
   <si>
+    <t>游玩平台</t>
+  </si>
+  <si>
     <t>扩展内容</t>
   </si>
   <si>
+    <t>是否全成就</t>
+  </si>
+  <si>
     <t>2011-09-22</t>
   </si>
   <si>
@@ -53,9 +59,15 @@
     <t>From Software</t>
   </si>
   <si>
+    <t>PC</t>
+  </si>
+  <si>
     <t>《艾雷德尔的绘画世界》《深渊的亚尔特留斯》</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>2014-03-11</t>
   </si>
   <si>
@@ -74,6 +86,9 @@
     <t>《血源：诅咒》</t>
   </si>
   <si>
+    <t>PS4</t>
+  </si>
+  <si>
     <t>《老猎人》</t>
   </si>
   <si>
@@ -257,9 +272,15 @@
     <t>任天堂</t>
   </si>
   <si>
+    <t>Switch</t>
+  </si>
+  <si>
     <t>《试炼的霸者》《英杰们诗篇》</t>
   </si>
   <si>
+    <t>无成就</t>
+  </si>
+  <si>
     <t>2018-01-25</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
   </si>
   <si>
     <t>《生化危机：代号维罗妮卡》</t>
+  </si>
+  <si>
+    <t>PC模拟器</t>
   </si>
   <si>
     <t>2001-09-24</t>
@@ -817,7 +841,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +851,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,7 +1206,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1200,16 +1230,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1218,95 +1248,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,34 +1355,64 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,191 +1729,261 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="D17 J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="101.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="101.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.25" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:6">
+      <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="12" t="s">
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="D8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
+      <c r="A9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="15" t="s">
+      <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="15" t="s">
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="B11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="B12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
+      <c r="A13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,239 +1995,317 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="57.75" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.25" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="F10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,349 +2317,481 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
-    <col min="4" max="4" width="73.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="73.75" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.25" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="C5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="F6" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="C7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
+      <c r="A13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="C13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="D16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
+      <c r="A17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:6">
+      <c r="A18" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
+      <c r="A19" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:6">
+      <c r="A20" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="7" t="s">
+      <c r="C20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:6">
+      <c r="A21" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:6">
+      <c r="A22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="7" t="s">
+      <c r="B22" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:6">
+      <c r="A23" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="B23" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:6">
+      <c r="A24" s="11" t="s">
         <v>160</v>
       </c>
+      <c r="B24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:6">
+      <c r="A25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:6">
+      <c r="A26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2460,203 +2803,277 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.25" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/游戏记录.xlsx
+++ b/游戏记录.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="265">
   <si>
     <t>发行日期</t>
   </si>
@@ -74,9 +74,6 @@
     <t>《黑暗之魂2》</t>
   </si>
   <si>
-    <t>FromSoftware</t>
-  </si>
-  <si>
     <t>《深渊之王的王冠》《铁之古王的王冠》《白王的王冠》</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
     <t>《老猎人》</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>2015-05-19</t>
   </si>
   <si>
@@ -113,6 +113,18 @@
     <t>《艾雷德尔之烬》《环印城》</t>
   </si>
   <si>
+    <t>2018-01-26</t>
+  </si>
+  <si>
+    <t>《怪物猎人：世界》</t>
+  </si>
+  <si>
+    <t>卡普空</t>
+  </si>
+  <si>
+    <t>《冰原》</t>
+  </si>
+  <si>
     <t>2019-06-18</t>
   </si>
   <si>
@@ -134,6 +146,30 @@
     <t>《莫西的帅杰作抢夺大作战》《浴血镖客》《枪炮、爱情与触手之婚礼大作战》《狂人克里格之脑内高潮大作战》</t>
   </si>
   <si>
+    <t>2019-10-16</t>
+  </si>
+  <si>
+    <t>《极乐迪斯科》</t>
+  </si>
+  <si>
+    <t>ZA/UM</t>
+  </si>
+  <si>
+    <t>2019-11-15</t>
+  </si>
+  <si>
+    <t>《宝可梦：剑盾》</t>
+  </si>
+  <si>
+    <t>GAME FREAK</t>
+  </si>
+  <si>
+    <t>《铠之孤岛》《冠之雪原》</t>
+  </si>
+  <si>
+    <t>无成就</t>
+  </si>
+  <si>
     <t>2020-12-10</t>
   </si>
   <si>
@@ -152,6 +188,15 @@
     <t>《艾尔登法环》</t>
   </si>
   <si>
+    <t>2022-11-15</t>
+  </si>
+  <si>
+    <t>《隐迹渐现》</t>
+  </si>
+  <si>
+    <t>黑曜石娱乐</t>
+  </si>
+  <si>
     <t>2023-08-03</t>
   </si>
   <si>
@@ -179,6 +224,15 @@
     <t>HEXWORKS</t>
   </si>
   <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>《碧蓝幻想：Relink》</t>
+  </si>
+  <si>
+    <t>Cygames</t>
+  </si>
+  <si>
     <t>2007-08-21</t>
   </si>
   <si>
@@ -188,6 +242,30 @@
     <t>Irrational Games</t>
   </si>
   <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
+    <t>《鬼泣3》</t>
+  </si>
+  <si>
+    <t>2009-08-25</t>
+  </si>
+  <si>
+    <t>《蝙蝠侠：阿卡姆疯人院》</t>
+  </si>
+  <si>
+    <t>Rocksteady Studios</t>
+  </si>
+  <si>
+    <t>2009-10-29</t>
+  </si>
+  <si>
+    <t>《猎天使魔女》</t>
+  </si>
+  <si>
+    <t>白金工作室</t>
+  </si>
+  <si>
     <t>2010-02-09</t>
   </si>
   <si>
@@ -212,6 +290,36 @@
     <t>《信号》《作家》</t>
   </si>
   <si>
+    <t>2011-10-18</t>
+  </si>
+  <si>
+    <t>《蝙蝠侠：阿卡姆之城》</t>
+  </si>
+  <si>
+    <t>《哈莉奎茵的复仇》</t>
+  </si>
+  <si>
+    <t>2013-01-15</t>
+  </si>
+  <si>
+    <t>《DMC：鬼泣》</t>
+  </si>
+  <si>
+    <t>Ninja Theory</t>
+  </si>
+  <si>
+    <t>《维吉尔的陨落》</t>
+  </si>
+  <si>
+    <t>2013-03-05</t>
+  </si>
+  <si>
+    <t>《古墓丽影9》</t>
+  </si>
+  <si>
+    <t>水晶动力工作室</t>
+  </si>
+  <si>
     <t>2013-03-26</t>
   </si>
   <si>
@@ -233,6 +341,18 @@
     <t>《遗落》</t>
   </si>
   <si>
+    <t>2013-10-26</t>
+  </si>
+  <si>
+    <t>《蝙蝠侠：阿卡姆起源》</t>
+  </si>
+  <si>
+    <t>蒙特利尔工作室</t>
+  </si>
+  <si>
+    <t>《冰冷之心》</t>
+  </si>
+  <si>
     <t>2015-03-11</t>
   </si>
   <si>
@@ -242,6 +362,24 @@
     <t>月亮工作室</t>
   </si>
   <si>
+    <t>2015-06-23</t>
+  </si>
+  <si>
+    <t>《蝙蝠侠：阿卡姆骑士》</t>
+  </si>
+  <si>
+    <t>RockSteady Studios</t>
+  </si>
+  <si>
+    <t>2016-05-10</t>
+  </si>
+  <si>
+    <t>《神秘海域4：盗贼末路》</t>
+  </si>
+  <si>
+    <t>《失落的遗产》</t>
+  </si>
+  <si>
     <t>2016-10-28</t>
   </si>
   <si>
@@ -278,9 +416,6 @@
     <t>《试炼的霸者》《英杰们诗篇》</t>
   </si>
   <si>
-    <t>无成就</t>
-  </si>
-  <si>
     <t>2018-01-25</t>
   </si>
   <si>
@@ -290,6 +425,12 @@
     <t>Matt Makes Games Inc.</t>
   </si>
   <si>
+    <t>2018-03-13</t>
+  </si>
+  <si>
+    <t>《鬼泣：HD合集》</t>
+  </si>
+  <si>
     <t>2018-04-20</t>
   </si>
   <si>
@@ -299,6 +440,18 @@
     <t>圣莫尼卡</t>
   </si>
   <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>《漫威蜘蛛侠》</t>
+  </si>
+  <si>
+    <t>Insomniac Games/Nixxes Software</t>
+  </si>
+  <si>
+    <t>《黑猫》《铁锤头》《银貂》</t>
+  </si>
+  <si>
     <t>2019-05-15</t>
   </si>
   <si>
@@ -317,6 +470,15 @@
     <t>《地基》《异世界事件》</t>
   </si>
   <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t>《塞尔达传说：织梦岛》</t>
+  </si>
+  <si>
+    <t>Grezzo</t>
+  </si>
+  <si>
     <t>2020-03-11</t>
   </si>
   <si>
@@ -344,9 +506,6 @@
     <t>《生化危机》</t>
   </si>
   <si>
-    <t>卡普空</t>
-  </si>
-  <si>
     <t>1998-01-29</t>
   </si>
   <si>
@@ -416,6 +575,15 @@
     <t>《生化危机6》</t>
   </si>
   <si>
+    <t>2013-09-04</t>
+  </si>
+  <si>
+    <t>《逃生》</t>
+  </si>
+  <si>
+    <t>Red Barrels</t>
+  </si>
+  <si>
     <t>2014-10-14</t>
   </si>
   <si>
@@ -512,6 +680,15 @@
     <t>《温特斯家的传续》</t>
   </si>
   <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>《蛊婆》</t>
+  </si>
+  <si>
+    <t>青岛魔娱</t>
+  </si>
+  <si>
     <t>2022-08-25</t>
   </si>
   <si>
@@ -539,6 +716,12 @@
     <t>《逆命殊途》</t>
   </si>
   <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>《三伏》</t>
+  </si>
+  <si>
     <t>2002-07-03</t>
   </si>
   <si>
@@ -642,15 +825,6 @@
   </si>
   <si>
     <t>《底特律：化身为人》</t>
-  </si>
-  <si>
-    <t>2022-11-15</t>
-  </si>
-  <si>
-    <t>《隐迹渐现（Pentiment）》</t>
-  </si>
-  <si>
-    <t>黑曜石娱乐</t>
   </si>
 </sst>
 </file>
@@ -841,7 +1015,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,12 +1025,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1374,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,16 +1398,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1248,89 +1416,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,61 +1529,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,19 +1891,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="101.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="101.25" style="14" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1766,224 +1928,328 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="10" t="s">
+    <row r="9" ht="14.25" spans="1:6">
+      <c r="A9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="10" t="s">
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
-      <c r="A10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="13" ht="14.25" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10" t="s">
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
-      <c r="A11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:6">
-      <c r="A12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:6">
-      <c r="A13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="10"/>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
+      <c r="A17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:6">
+      <c r="A18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1995,17 +2261,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="57.75" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="2" customWidth="1"/>
@@ -2033,279 +2299,531 @@
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>76</v>
+      <c r="E9" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="9" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F12" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2317,10 +2835,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2354,444 +2872,524 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12"/>
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12"/>
+      <c r="A3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="A4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="A5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>115</v>
+      <c r="A6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12"/>
+      <c r="A8" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" ht="14.25" spans="1:6">
-      <c r="A10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" ht="14.25" spans="1:6">
-      <c r="A11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" ht="14.25" spans="1:6">
-      <c r="A12" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>129</v>
+      <c r="A12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
-      <c r="A13" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="A13" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
-      <c r="A14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
     <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>140</v>
+      <c r="A16" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="A17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>147</v>
+      <c r="A18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
-      <c r="A19" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
-    </row>
     <row r="20" ht="14.25" spans="1:6">
-      <c r="A20" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="A20" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:6">
-      <c r="A21" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-    </row>
     <row r="22" ht="14.25" spans="1:6">
-      <c r="A22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="A22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
-      <c r="A23" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>159</v>
-      </c>
+      <c r="A23" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:6">
-      <c r="A24" s="11" t="s">
-        <v>160</v>
+      <c r="A24" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>215</v>
+      </c>
       <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:6">
-      <c r="A25" s="11" t="s">
-        <v>163</v>
+      <c r="A25" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="9"/>
+      <c r="A26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,7 +3404,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2841,239 +3439,247 @@
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="10" t="s">
-        <v>82</v>
+      <c r="F3" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/游戏记录.xlsx
+++ b/游戏记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="3"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="角色扮演" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="269">
   <si>
     <t>发行日期</t>
   </si>
@@ -485,6 +485,15 @@
     <t>《精灵与萤火意志》</t>
   </si>
   <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>《暗影火炬城》</t>
+  </si>
+  <si>
+    <t>上海钛核网络</t>
+  </si>
+  <si>
     <t>2022-09-27</t>
   </si>
   <si>
@@ -671,6 +680,9 @@
     <t>拾英工作室</t>
   </si>
   <si>
+    <t>《三伏》</t>
+  </si>
+  <si>
     <t>2021-05-07</t>
   </si>
   <si>
@@ -716,12 +728,6 @@
     <t>《逆命殊途》</t>
   </si>
   <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>《三伏》</t>
-  </si>
-  <si>
     <t>2002-07-03</t>
   </si>
   <si>
@@ -825,6 +831,12 @@
   </si>
   <si>
     <t>《底特律：化身为人》</t>
+  </si>
+  <si>
+    <t>2018-12-07</t>
+  </si>
+  <si>
+    <t>《任天堂明星大乱斗：特别版》</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,21 +1576,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1893,8 +1890,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2004,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:6">
@@ -2234,20 +2231,20 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26" t="s">
+      <c r="D18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2261,10 +2258,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2768,7 +2765,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="9" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:6">
@@ -2815,13 +2812,31 @@
         <v>155</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2835,10 +2850,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2873,10 +2888,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
@@ -2891,10 +2906,10 @@
     </row>
     <row r="3" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>29</v>
@@ -2909,10 +2924,10 @@
     </row>
     <row r="4" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -2927,16 +2942,16 @@
     </row>
     <row r="5" customFormat="1" ht="14.25" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="9" t="s">
@@ -2945,19 +2960,19 @@
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>45</v>
@@ -2965,10 +2980,10 @@
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>29</v>
@@ -2977,7 +2992,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>19</v>
@@ -2985,13 +3000,13 @@
     </row>
     <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>9</v>
@@ -3003,10 +3018,10 @@
     </row>
     <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>29</v>
@@ -3021,13 +3036,13 @@
     </row>
     <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>9</v>
@@ -3039,10 +3054,10 @@
     </row>
     <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>29</v>
@@ -3057,13 +3072,13 @@
     </row>
     <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>9</v>
@@ -3075,19 +3090,19 @@
     </row>
     <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>19</v>
@@ -3095,10 +3110,10 @@
     </row>
     <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>29</v>
@@ -3113,10 +3128,10 @@
     </row>
     <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>29</v>
@@ -3125,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>19</v>
@@ -3133,10 +3148,10 @@
     </row>
     <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>29</v>
@@ -3151,19 +3166,19 @@
     </row>
     <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>19</v>
@@ -3171,10 +3186,10 @@
     </row>
     <row r="18" ht="14.25" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>29</v>
@@ -3183,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>19</v>
@@ -3191,10 +3206,10 @@
     </row>
     <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>29</v>
@@ -3209,13 +3224,13 @@
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>9</v>
@@ -3227,10 +3242,10 @@
     </row>
     <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>29</v>
@@ -3245,13 +3260,13 @@
     </row>
     <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>9</v>
@@ -3263,28 +3278,30 @@
     </row>
     <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>29</v>
@@ -3293,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>11</v>
@@ -3301,13 +3318,13 @@
     </row>
     <row r="25" ht="14.25" spans="1:6">
       <c r="A25" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>9</v>
@@ -3319,13 +3336,13 @@
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" s="10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>9</v>
@@ -3337,13 +3354,13 @@
     </row>
     <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>9</v>
@@ -3355,10 +3372,10 @@
     </row>
     <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>29</v>
@@ -3367,28 +3384,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:6">
-      <c r="A29" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3403,8 +3402,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="F27 G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3439,19 +3438,19 @@
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>45</v>
@@ -3459,13 +3458,13 @@
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
@@ -3477,13 +3476,13 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -3495,13 +3494,13 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>9</v>
@@ -3513,13 +3512,13 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
@@ -3531,13 +3530,13 @@
     </row>
     <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
@@ -3549,13 +3548,13 @@
     </row>
     <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>9</v>
@@ -3567,13 +3566,13 @@
     </row>
     <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>9</v>
@@ -3585,13 +3584,13 @@
     </row>
     <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>9</v>
@@ -3603,13 +3602,13 @@
     </row>
     <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
@@ -3621,13 +3620,13 @@
     </row>
     <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>9</v>
@@ -3639,13 +3638,13 @@
     </row>
     <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>9</v>
@@ -3657,13 +3656,13 @@
     </row>
     <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>9</v>
@@ -3674,12 +3673,22 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
